--- a/biology/Médecine/Victor_André_Cornil/Victor_André_Cornil.xlsx
+++ b/biology/Médecine/Victor_André_Cornil/Victor_André_Cornil.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Victor_Andr%C3%A9_Cornil</t>
+          <t>Victor_André_Cornil</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Victor André (ou André-Victor[1]) Cornil, né le 17 juin 1837 à Cusset et mort le 13 avril 1908 à Menton, est un histologiste, anatomo-pathologiste et homme politique français.
+Victor André (ou André-Victor) Cornil, né le 17 juin 1837 à Cusset et mort le 13 avril 1908 à Menton, est un histologiste, anatomo-pathologiste et homme politique français.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Victor_Andr%C3%A9_Cornil</t>
+          <t>Victor_André_Cornil</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,11 +524,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est le fils de Félix Cornil (1802-1879), médecin à Cusset et inspecteur des eaux de Vichy, maire de Cusset, et de Reine Rose Boirot, elle-même fille d'André dit Victor Boirot (1783-1849), conseiller général de l'Allier[2]. Il a épousé en premières noces, le 21 décembre 1872 à Paris 6e, Élisabeth Jeanne Marie Pauline Caffe (1846-1874), puis, en deuxièmes noces, le 19 avril 1876 à Paris 8e Antoinette Amélie Motet (1856-1917). De sa seconde femme, il a eu une fille, Andrée Cornil, épouse du général Adolphe Messimy, député, sénateur et ministre de la Troisième République.
-Ayant obtenu son doctorat à Paris en 1864. Il est lauréat de l'Académie de médecine en 1865, et de l'Académie des sciences en 1868. Il devient chef de clinique entre 1868 avant d'être médecin du bureau central des hôpitaux en 1869. Il poursuit une carrière d'enseignant à la faculté de médecine de Paris en 1869 et exerce dans plusieurs établissements de Paris. Il est élu membre de l'Académie nationale de médecine en 1884[3]. Il est officier de la Légion d'honneur par le ministre de l'Instruction publique[4]
-Il se présente en 1869 à la députation comme candidat indépendant dans l'Allier et obtient  environ 10 000 voix. Il réussit cependant à entrer dans le conseil général du département l'année suivante. Ami de Gambetta, il devient préfet de l'Allier le 4 septembre 1870 mais démissionne un mois plus tard pour se présenter aux prochaines élections où il échoue. Il est élu député en 1876 et conserve son siège jusqu'en 1882. Il siège aux groupes de l'Union républicaine et de la Gauche républicaine et en mai 1877, il est l'un des signataires du manifeste des 363[5]. Il quitte son siège en 1882 pour occuper un poste de professeur d'anatomie pathologique à la faculté de médecine de Paris. Il s'intéresse aux questions de santé publique et est souvent nommé rapporteur sur ce sujet. Il retrouve un siège de sénateur de l'Allier[6] en 1885, qu'il conserve jusqu'en 1903. Il est rapporteur de plusieurs projets de loi en lien avec la santé publique et la médecine au cours de ses mandats. Il est mis en échec en 1903 après s'être rapproché de la droite en 1894 en critiquant la position des radicaux. Il met fin à ses activités scientifiques en 1907. Il est aussi maire de Creuzier-le-Neuf entre 1874 et 1897. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est le fils de Félix Cornil (1802-1879), médecin à Cusset et inspecteur des eaux de Vichy, maire de Cusset, et de Reine Rose Boirot, elle-même fille d'André dit Victor Boirot (1783-1849), conseiller général de l'Allier. Il a épousé en premières noces, le 21 décembre 1872 à Paris 6e, Élisabeth Jeanne Marie Pauline Caffe (1846-1874), puis, en deuxièmes noces, le 19 avril 1876 à Paris 8e Antoinette Amélie Motet (1856-1917). De sa seconde femme, il a eu une fille, Andrée Cornil, épouse du général Adolphe Messimy, député, sénateur et ministre de la Troisième République.
+Ayant obtenu son doctorat à Paris en 1864. Il est lauréat de l'Académie de médecine en 1865, et de l'Académie des sciences en 1868. Il devient chef de clinique entre 1868 avant d'être médecin du bureau central des hôpitaux en 1869. Il poursuit une carrière d'enseignant à la faculté de médecine de Paris en 1869 et exerce dans plusieurs établissements de Paris. Il est élu membre de l'Académie nationale de médecine en 1884. Il est officier de la Légion d'honneur par le ministre de l'Instruction publique
+Il se présente en 1869 à la députation comme candidat indépendant dans l'Allier et obtient  environ 10 000 voix. Il réussit cependant à entrer dans le conseil général du département l'année suivante. Ami de Gambetta, il devient préfet de l'Allier le 4 septembre 1870 mais démissionne un mois plus tard pour se présenter aux prochaines élections où il échoue. Il est élu député en 1876 et conserve son siège jusqu'en 1882. Il siège aux groupes de l'Union républicaine et de la Gauche républicaine et en mai 1877, il est l'un des signataires du manifeste des 363. Il quitte son siège en 1882 pour occuper un poste de professeur d'anatomie pathologique à la faculté de médecine de Paris. Il s'intéresse aux questions de santé publique et est souvent nommé rapporteur sur ce sujet. Il retrouve un siège de sénateur de l'Allier en 1885, qu'il conserve jusqu'en 1903. Il est rapporteur de plusieurs projets de loi en lien avec la santé publique et la médecine au cours de ses mandats. Il est mis en échec en 1903 après s'être rapproché de la droite en 1894 en critiquant la position des radicaux. Il met fin à ses activités scientifiques en 1907. Il est aussi maire de Creuzier-le-Neuf entre 1874 et 1897. 
 Victor Cornil bénéficie d'une statue à Cusset sa ville natale depuis 1910 ainsi qu'à partir de 1911 à la Faculté de médecine de Paris.
 Sa fille, Andrée Cornil, épouse Adolphe Messimy, député de la Seine et futur Ministre des Colonies et de la Guerre.
 </t>
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Victor_Andr%C3%A9_Cornil</t>
+          <t>Victor_André_Cornil</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Décoration</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> Chevalier de la Légion d'honneur (9 juillet 1883)
  Officier de la Légion d'honneur (19 juillet 1903)</t>
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Victor_Andr%C3%A9_Cornil</t>
+          <t>Victor_André_Cornil</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,7 +594,9 @@
           <t>Œuvres et publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Parmi ses très nombreuses parutions, on relève :
 Sur les lésions anatomiques du rein dans l'albuminurie, [thèse de médecine de Paris n° 229], imp. de E. Martinet,1864, Texte intégral.
@@ -599,7 +617,7 @@
 Titres et travaux scientifiques, impr. A. Lanier (Paris), 1887, Texte intégral.
 Leçons sur l'anatomie pathologique des métrites, des salpingites et des cancers de l'utérus faites à l'Hôtel-Dieu, [recueillies par M. Laffitte et M. le Dr Toupet],  F. Alcan (Paris), 1889, lire en ligne sur Gallica.
 La méthode de Koch et sa technique, impr. de Daix frères (Clermont (Oise)), 1891, lire en ligne sur Gallica.
-« Quatre leçons professées en novembre 1895 sur les découvertes de Pasteur et leurs applications à l'anatomie et à l'histologie pathologique » [Cours d'anatomie pathologique de la Faculté de médecine] ,  extrait de: Journal des connaissances médicales, Société nouvelle de l'Imprimerie Schiller (Paris), [1895], lire en ligne sur Gallica.
+« Quatre leçons professées en novembre 1895 sur les découvertes de Pasteur et leurs applications à l'anatomie et à l'histologie pathologique » [Cours d'anatomie pathologique de la Faculté de médecine] ,  extrait de: Journal des connaissances médicales, Société nouvelle de l'Imprimerie Schiller (Paris), , lire en ligne sur Gallica.
 Anatomie et histologie de la grossesse tubaire, Masson (Paris), 1901.
 Travaux scientifiques, supplément, 1887-1901, Félix Alcan (Paris), 1901, Texte intégral.
 Paul Brouardel, souvenirs d'autrefois, É. Crété (Corbeil), 1906.
